--- a/投资/精算必备-平台币.xlsx
+++ b/投资/精算必备-平台币.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>期数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,34 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10%折算OKB价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20%折算OKB价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20%折算OKB价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10%折算OKB价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均分红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低分红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高分红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成交量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,18 +82,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预测最低分红1</t>
+    <t>平均分红/USDT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预测最低分红2</t>
+    <t>最低分红/USDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高分红/USDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%折算OKB价格/USDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%折算OKB价格/USDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%折算OKB价格/USDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%折算OKB价格/USDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%折算OKB价格/USDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%折算OKB价格/USDT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000000_ "/>
@@ -286,7 +286,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3638,6 +3638,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-432D-4307-AAED-58085FFAC7A9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3803,7 +3808,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -5973,6 +5978,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D59-49C1-985F-ED587FE9165B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7320,7 +7330,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7609,7 +7619,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7619,8 +7629,8 @@
     <col min="4" max="4" width="11.625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="13" customWidth="1"/>
-    <col min="8" max="9" width="15.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.125" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15.5" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="15" bestFit="1" customWidth="1"/>
@@ -7649,13 +7659,13 @@
         <v>10</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="29" t="s">
         <v>2</v>
@@ -7768,13 +7778,13 @@
         <v>0.20018767507002797</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -7866,13 +7876,13 @@
         <v>0.11530889724310778</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -7961,15 +7971,9 @@
         <f t="shared" si="0"/>
         <v>8.7712670495333808E-2</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -7994,18 +7998,9 @@
         <f t="shared" si="0"/>
         <v>8.1801984289107579E-2</v>
       </c>
-      <c r="G11" s="19">
-        <f>G8/3</f>
-        <v>30.22666666666667</v>
-      </c>
-      <c r="H11" s="19">
-        <f>G11/7*365/0.1/10000</f>
-        <v>1.5761047619047619</v>
-      </c>
-      <c r="I11" s="19">
-        <f>G11/7*365/0.2/10000</f>
-        <v>0.78805238095238095</v>
-      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -8057,15 +8052,9 @@
         <f t="shared" si="0"/>
         <v>8.8301608077786087E-2</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -8090,18 +8079,9 @@
         <f t="shared" si="0"/>
         <v>8.9002463054187186E-2</v>
       </c>
-      <c r="G14" s="19">
-        <f>G8*0.5</f>
-        <v>45.34</v>
-      </c>
-      <c r="H14" s="19">
-        <f>G14/7*365/0.1/10000</f>
-        <v>2.3641571428571431</v>
-      </c>
-      <c r="I14" s="19">
-        <f>G14/7*365/0.2/10000</f>
-        <v>1.1820785714285715</v>
-      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -8246,14 +8226,14 @@
         <v>10000</v>
       </c>
       <c r="C20" s="4">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2">
         <v>1.8</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>0.13035714285714287</v>
+        <v>0.17091269841269843</v>
       </c>
     </row>
   </sheetData>
@@ -8282,13 +8262,13 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -29106,10 +29086,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -38652,6 +38632,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>